--- a/2_metal_balance/data/2-4-1南国铜业4月份结存物料化验数据.xlsx
+++ b/2_metal_balance/data/2-4-1南国铜业4月份结存物料化验数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17300" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="4月份化验数据" sheetId="1" r:id="rId1"/>
@@ -443,11 +443,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>名称（少</t>
@@ -463,6 +469,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>铜渣（南丹）</t>
@@ -478,6 +485,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>—窑渣（南丹）’）</t>
@@ -506,19 +514,19 @@
   <numFmts count="13">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="184" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="182" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,110 +599,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -718,23 +628,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,8 +650,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -778,13 +775,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,25 +889,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,25 +907,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,43 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,37 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,6 +1114,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1128,6 +1143,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,6 +1177,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1161,50 +1202,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1222,97 +1219,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0">
@@ -1321,59 +1318,59 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,16 +1390,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,226 +1426,226 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="183" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="10" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1660,22 +1657,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2037,17 +2034,17 @@
   <sheetPr/>
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.12727272727273" style="91" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="91" customWidth="1"/>
     <col min="2" max="2" width="6" style="91" customWidth="1"/>
-    <col min="3" max="3" width="21.2545454545455" style="91" customWidth="1"/>
+    <col min="3" max="3" width="21.2583333333333" style="91" customWidth="1"/>
     <col min="4" max="8" width="12" style="91" customWidth="1"/>
-    <col min="9" max="9" width="16.8181818181818" style="91" customWidth="1"/>
+    <col min="9" max="9" width="16.8166666666667" style="91" customWidth="1"/>
     <col min="10" max="16378" width="9" style="91"/>
     <col min="16379" max="16384" width="9" style="92"/>
   </cols>
@@ -2138,16 +2135,16 @@
       <c r="D5" s="12">
         <v>38960.18</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>7.75927883290067</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>22.6041151676158</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>140.355867386371</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>2.19185432924274</v>
       </c>
       <c r="I5" s="91">
@@ -2164,16 +2161,16 @@
       <c r="D6" s="12">
         <v>187.8</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>0.09797657082002</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>60.3967678662801</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>140.734265734266</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>0.4583830803343</v>
       </c>
       <c r="I6" s="91">
@@ -2190,14 +2187,14 @@
       <c r="D7" s="12">
         <v>4.04</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <v>78.960396039604</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>6948.0198019802</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="91">
         <f t="shared" si="0"/>
         <v>404</v>
@@ -2209,10 +2206,10 @@
       <c r="C8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="95" t="s">
         <v>20</v>
       </c>
@@ -2227,19 +2224,19 @@
       <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>121.74</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="38">
         <v>9.82175127320519</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="38">
         <v>0.909976954537588</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>60.4009728282157</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <v>0.628512611242178</v>
       </c>
       <c r="I9" s="91">
@@ -2256,12 +2253,12 @@
       <c r="D10" s="15">
         <v>39.18</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38">
         <v>99.02</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="91">
         <f t="shared" si="0"/>
         <v>3918</v>
@@ -2269,25 +2266,25 @@
     </row>
     <row r="11" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A11" s="13"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>580</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>8.81</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <v>24.2</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>41.2</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>0.2</v>
       </c>
       <c r="I11" s="91">
@@ -2297,21 +2294,21 @@
     </row>
     <row r="12" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A12" s="13"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>376.2</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40">
+      <c r="E12" s="38"/>
+      <c r="F12" s="39">
         <v>73.62</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="39">
         <v>237.5</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="39">
         <v>8.97</v>
       </c>
       <c r="I12" s="91">
@@ -2321,21 +2318,21 @@
     </row>
     <row r="13" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A13" s="13"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>215.27</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40">
+      <c r="E13" s="38"/>
+      <c r="F13" s="39">
         <v>1.89</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>5.6</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <v>0.06</v>
       </c>
       <c r="I13" s="91">
@@ -2345,21 +2342,21 @@
     </row>
     <row r="14" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A14" s="13"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>237</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40">
+      <c r="E14" s="38"/>
+      <c r="F14" s="39">
         <v>12.71</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>130.6</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="39">
         <v>1.15</v>
       </c>
       <c r="I14" s="91">
@@ -2369,21 +2366,21 @@
     </row>
     <row r="15" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A15" s="13"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>438.54</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40">
+      <c r="E15" s="38"/>
+      <c r="F15" s="39">
         <v>99.01</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="39">
         <v>315</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <v>12.02</v>
       </c>
       <c r="I15" s="91">
@@ -2393,21 +2390,21 @@
     </row>
     <row r="16" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A16" s="13"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>161.13</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40">
+      <c r="E16" s="38"/>
+      <c r="F16" s="39">
         <v>30.51</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <v>13.9</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="39">
         <v>0.15</v>
       </c>
       <c r="I16" s="91">
@@ -2417,21 +2414,21 @@
     </row>
     <row r="17" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A17" s="13"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>312.5</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39">
         <v>30.51</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <v>13.9</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="39">
         <v>0.15</v>
       </c>
       <c r="I17" s="91">
@@ -2441,21 +2438,21 @@
     </row>
     <row r="18" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A18" s="13"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>63</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40">
+      <c r="E18" s="38"/>
+      <c r="F18" s="39">
         <v>12.71</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="39">
         <v>130.6</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="39">
         <v>1.15</v>
       </c>
       <c r="I18" s="91">
@@ -2465,21 +2462,21 @@
     </row>
     <row r="19" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A19" s="13"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>2719.13</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39">
+      <c r="E19" s="38"/>
+      <c r="F19" s="38">
         <v>7.01934074501771</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <v>75.2281060486258</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="38">
         <v>0.514870565217551</v>
       </c>
       <c r="I19" s="91">
@@ -2489,21 +2486,21 @@
     </row>
     <row r="20" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A20" s="13"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>666</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41">
+      <c r="E20" s="40"/>
+      <c r="F20" s="40">
         <v>99.57</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <v>329.29</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="40">
         <v>11.6</v>
       </c>
       <c r="I20" s="91">
@@ -2513,21 +2510,21 @@
     </row>
     <row r="21" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A21" s="13"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <v>283.6</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39">
+      <c r="E21" s="38"/>
+      <c r="F21" s="38">
         <v>99.57</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>329.29</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="38">
         <v>11.6</v>
       </c>
       <c r="I21" s="91">
@@ -2537,21 +2534,21 @@
     </row>
     <row r="22" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A22" s="13"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>20.94</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38">
         <v>99.57</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="38">
         <v>329.29</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="38">
         <v>11.6</v>
       </c>
       <c r="I22" s="91">
@@ -2561,21 +2558,21 @@
     </row>
     <row r="23" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A23" s="13"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>14</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39">
+      <c r="E23" s="38"/>
+      <c r="F23" s="38">
         <v>99.57</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <v>329.29</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="38">
         <v>11.6</v>
       </c>
       <c r="I23" s="91">
@@ -2585,21 +2582,21 @@
     </row>
     <row r="24" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A24" s="13"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>136.8</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38">
         <v>39.84</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <v>57.6</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="38">
         <v>1.32</v>
       </c>
       <c r="I24" s="91">
@@ -2609,21 +2606,21 @@
     </row>
     <row r="25" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A25" s="13"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>70</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38">
         <v>56.1</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <v>72.8</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="38">
         <v>0.128571428571429</v>
       </c>
       <c r="I25" s="91">
@@ -2633,17 +2630,17 @@
     </row>
     <row r="26" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A26" s="13"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>0</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2651,21 +2648,21 @@
     </row>
     <row r="27" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A27" s="13"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>53.912</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39">
+      <c r="E27" s="38"/>
+      <c r="F27" s="38">
         <v>99.57</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <v>329.29</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="38">
         <v>11.6</v>
       </c>
       <c r="I27" s="91">
@@ -2675,19 +2672,19 @@
     </row>
     <row r="28" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A28" s="13"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>6.72</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38">
         <v>100</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
       <c r="I28" s="91">
         <f t="shared" si="0"/>
         <v>672</v>
@@ -2695,21 +2692,21 @@
     </row>
     <row r="29" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A29" s="13"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>5.4</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38">
         <v>99.74</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="38">
         <v>2.61</v>
       </c>
-      <c r="H29" s="39"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="91">
         <f t="shared" si="0"/>
         <v>540</v>
@@ -2717,15 +2714,15 @@
     </row>
     <row r="30" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A30" s="13"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2733,39 +2730,39 @@
     </row>
     <row r="31" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A31" s="13"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A32" s="25"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>71.55</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="38">
         <v>19.6296296296296</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>4.17355012607599</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="39">
         <v>349.50004347448</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="39">
         <v>1.68680984262238</v>
       </c>
       <c r="I32" s="91">
@@ -2774,42 +2771,42 @@
       </c>
     </row>
     <row r="33" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A33" s="25"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>0</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
       <c r="I33" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A34" s="25"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="20" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>3202.12</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="38">
         <v>65.2886837470176</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="39">
         <v>2.2910522556046</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="39">
         <v>5.83986655846434</v>
       </c>
-      <c r="H34" s="40">
+      <c r="H34" s="39">
         <v>0.304094114429356</v>
       </c>
       <c r="I34" s="91">
@@ -2818,46 +2815,46 @@
       </c>
     </row>
     <row r="35" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A35" s="25"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="20" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>3148.62</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="38">
         <v>53.0992745322642</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>0.0852783861014548</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="91">
         <f t="shared" si="0"/>
         <v>147672.562222222</v>
       </c>
     </row>
     <row r="36" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A36" s="25"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="20" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>294.48</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="38">
         <v>64.0318527574029</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="39">
         <v>0.129344121451298</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="39">
         <v>1.3500882750026</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="39">
         <v>0.160500004720588</v>
       </c>
       <c r="I36" s="91">
@@ -2866,16 +2863,16 @@
       </c>
     </row>
     <row r="37" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2883,21 +2880,21 @@
     </row>
     <row r="38" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A38" s="13"/>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="30">
         <v>29.0146</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39">
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38">
         <v>999900</v>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="38"/>
       <c r="I38" s="91">
         <f t="shared" ref="I38:I64" si="1">(D38*(100-E38))</f>
         <v>2901.46</v>
@@ -2905,19 +2902,19 @@
     </row>
     <row r="39" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A39" s="13"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="18">
         <v>10</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39">
+      <c r="E39" s="38"/>
+      <c r="F39" s="38">
         <v>99.8</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="91">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -2927,21 +2924,21 @@
       <c r="A40" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="28"/>
+      <c r="C40" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>21</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="38">
         <v>0</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="39">
         <v>25</v>
       </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
       <c r="I40" s="91">
         <f t="shared" si="1"/>
         <v>2100</v>
@@ -2952,20 +2949,20 @@
       <c r="B41" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="20">
         <v>5725.4</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="40">
+      <c r="E41" s="38"/>
+      <c r="F41" s="39">
         <v>99.57</v>
       </c>
       <c r="G41" s="96">
         <v>319.29</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="39">
         <v>11.6</v>
       </c>
       <c r="I41" s="91">
@@ -2976,20 +2973,20 @@
     <row r="42" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D42" s="32">
         <v>5264.5</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43">
+      <c r="E42" s="41"/>
+      <c r="F42" s="42">
         <v>99.57</v>
       </c>
       <c r="G42" s="97">
         <v>319.29</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="42">
         <v>11.6</v>
       </c>
       <c r="I42" s="91">
@@ -3000,20 +2997,20 @@
     <row r="43" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <v>846.4</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43">
+      <c r="E43" s="41"/>
+      <c r="F43" s="42">
         <v>99.57</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="42">
         <v>319.29</v>
       </c>
-      <c r="H43" s="43">
+      <c r="H43" s="42">
         <v>11.6</v>
       </c>
       <c r="I43" s="91">
@@ -3024,20 +3021,20 @@
     <row r="44" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>274.71</v>
       </c>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40">
+      <c r="E44" s="38"/>
+      <c r="F44" s="39">
         <v>99.57</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="39">
         <v>319.29</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="39">
         <v>11.6</v>
       </c>
       <c r="I44" s="91">
@@ -3048,22 +3045,22 @@
     <row r="45" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="18">
         <v>36.384096024006</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="38">
         <v>33.35</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="39">
         <v>15.98</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="39">
         <v>32320</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="39">
         <v>2733</v>
       </c>
       <c r="I45" s="91">
@@ -3074,22 +3071,22 @@
     <row r="46" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="18">
         <v>37.964835848763</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="38">
         <v>35.73</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="39">
         <v>17.23</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="39">
         <v>29910</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="39">
         <v>3110</v>
       </c>
       <c r="I46" s="91">
@@ -3100,20 +3097,20 @@
     <row r="47" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <v>3711.9</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="40">
+      <c r="E47" s="38"/>
+      <c r="F47" s="39">
         <v>100</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="39">
         <v>7.47</v>
       </c>
-      <c r="H47" s="40"/>
+      <c r="H47" s="39"/>
       <c r="I47" s="91">
         <f t="shared" si="1"/>
         <v>371190</v>
@@ -3122,22 +3119,22 @@
     <row r="48" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="20">
         <v>51.1</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="38">
         <v>35.9099804305284</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="42">
         <v>18.1709923664122</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G48" s="42">
         <v>80042.2595419847</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="39">
         <v>2269.95419847328</v>
       </c>
       <c r="I48" s="91">
@@ -3148,18 +3145,18 @@
     <row r="49" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="33">
         <v>8197</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="44">
+      <c r="E49" s="40"/>
+      <c r="F49" s="43">
         <v>50.9100548981335</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
       <c r="I49" s="91">
         <f t="shared" si="1"/>
         <v>819700</v>
@@ -3168,16 +3165,16 @@
     <row r="50" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="33">
         <v>0</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
       <c r="I50" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3185,21 +3182,21 @@
     </row>
     <row r="51" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A51" s="13"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="34" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="23">
         <v>0.4125</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="40">
+      <c r="E51" s="40"/>
+      <c r="F51" s="39">
         <v>100</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="39">
         <v>7.47</v>
       </c>
-      <c r="H51" s="44"/>
+      <c r="H51" s="43"/>
       <c r="I51" s="91">
         <f t="shared" si="1"/>
         <v>41.25</v>
@@ -3207,23 +3204,23 @@
     </row>
     <row r="52" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A52" s="13"/>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="35">
         <v>907.3139</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="44">
+      <c r="E52" s="40"/>
+      <c r="F52" s="43">
         <v>99.9969360107897</v>
       </c>
-      <c r="G52" s="44">
+      <c r="G52" s="43">
         <v>6.59749619178104</v>
       </c>
-      <c r="H52" s="44"/>
+      <c r="H52" s="43"/>
       <c r="I52" s="91">
         <f t="shared" si="1"/>
         <v>90731.39</v>
@@ -3231,33 +3228,33 @@
     </row>
     <row r="53" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A53" s="13"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <v>0</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
       <c r="I53" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3267,23 +3264,23 @@
       <c r="A55" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>45000</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40">
+      <c r="E55" s="38"/>
+      <c r="F55" s="39">
         <v>1.89</v>
       </c>
-      <c r="G55" s="40">
+      <c r="G55" s="39">
         <v>4.2</v>
       </c>
-      <c r="H55" s="40">
+      <c r="H55" s="39">
         <v>0.06</v>
       </c>
       <c r="I55" s="91">
@@ -3293,23 +3290,23 @@
     </row>
     <row r="56" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A56" s="13"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>2759</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="38">
         <v>10.64</v>
       </c>
-      <c r="F56" s="40">
+      <c r="F56" s="39">
         <v>19.3570938803737</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="39">
         <v>2.20347503665465</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="39">
         <v>0.200582949442186</v>
       </c>
       <c r="I56" s="91">
@@ -3319,21 +3316,21 @@
     </row>
     <row r="57" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A57" s="13"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="20">
         <v>765.14</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40">
+      <c r="E57" s="38"/>
+      <c r="F57" s="39">
         <v>23.2899861463262</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="39">
         <v>31.86</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H57" s="39">
         <v>0.2</v>
       </c>
       <c r="I57" s="91">
@@ -3343,21 +3340,21 @@
     </row>
     <row r="58" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A58" s="13"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="20">
         <v>765.14</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="40">
+      <c r="E58" s="38"/>
+      <c r="F58" s="39">
         <v>0.310008625872389</v>
       </c>
-      <c r="G58" s="40">
+      <c r="G58" s="39">
         <v>0.8</v>
       </c>
-      <c r="H58" s="40"/>
+      <c r="H58" s="39"/>
       <c r="I58" s="91">
         <f t="shared" si="1"/>
         <v>76514</v>
@@ -3365,21 +3362,21 @@
     </row>
     <row r="59" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A59" s="13"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="20">
         <v>765.14</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40">
+      <c r="E59" s="38"/>
+      <c r="F59" s="39">
         <v>0.270015944794417</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="39">
         <v>1.3</v>
       </c>
-      <c r="H59" s="40"/>
+      <c r="H59" s="39"/>
       <c r="I59" s="91">
         <f t="shared" si="1"/>
         <v>76514</v>
@@ -3387,21 +3384,21 @@
     </row>
     <row r="60" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A60" s="13"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="17"/>
+      <c r="C60" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="20">
         <v>220.23</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="40">
+      <c r="E60" s="38"/>
+      <c r="F60" s="39">
         <v>1.89029650819598</v>
       </c>
-      <c r="G60" s="40">
+      <c r="G60" s="39">
         <v>4.62</v>
       </c>
-      <c r="H60" s="40">
+      <c r="H60" s="39">
         <v>0.06</v>
       </c>
       <c r="I60" s="91">
@@ -3411,21 +3408,21 @@
     </row>
     <row r="61" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A61" s="13"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="17"/>
+      <c r="C61" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="20">
         <v>117.819</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="40">
+      <c r="E61" s="38"/>
+      <c r="F61" s="39">
         <v>3.84488070684694</v>
       </c>
-      <c r="G61" s="40">
+      <c r="G61" s="39">
         <v>4.62</v>
       </c>
-      <c r="H61" s="40">
+      <c r="H61" s="39">
         <v>0.06</v>
       </c>
       <c r="I61" s="91">
@@ -3435,21 +3432,21 @@
     </row>
     <row r="62" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A62" s="13"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="18">
         <v>1047.6</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="38">
         <v>53.0992745322642</v>
       </c>
-      <c r="F62" s="40">
+      <c r="F62" s="39">
         <v>0.0852783861014548</v>
       </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
       <c r="I62" s="91">
         <f t="shared" si="1"/>
         <v>49133.2</v>
@@ -3460,22 +3457,22 @@
       <c r="B63" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="18">
         <v>2300</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="38">
         <v>6.93</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="39">
         <v>0.31</v>
       </c>
-      <c r="G63" s="40">
+      <c r="G63" s="39">
         <v>0.8</v>
       </c>
-      <c r="H63" s="40"/>
+      <c r="H63" s="39"/>
       <c r="I63" s="91">
         <f t="shared" si="1"/>
         <v>214061</v>
@@ -3483,40 +3480,40 @@
     </row>
     <row r="64" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A64" s="13"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="18">
         <v>3700</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="38">
         <v>8.42</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F64" s="39">
         <v>0.27</v>
       </c>
-      <c r="G64" s="40">
+      <c r="G64" s="39">
         <v>1.3</v>
       </c>
-      <c r="H64" s="40"/>
+      <c r="H64" s="39"/>
       <c r="I64" s="91">
         <f t="shared" si="1"/>
         <v>338846</v>
       </c>
     </row>
     <row r="65" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A65" s="25"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="47" t="s">
         <v>50</v>
       </c>
       <c r="C65" s="48"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="45"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="44"/>
     </row>
     <row r="66" s="91" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A66" s="49" t="s">
@@ -3529,7 +3526,7 @@
       <c r="F66" s="81"/>
       <c r="G66" s="82"/>
       <c r="H66" s="82"/>
-      <c r="I66" s="45"/>
+      <c r="I66" s="44"/>
     </row>
     <row r="67" s="91" customFormat="1" ht="13.5" spans="1:8">
       <c r="A67" s="1" t="s">
@@ -3853,7 +3850,7 @@
       <c r="C84" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="30">
         <v>330.3822</v>
       </c>
       <c r="E84" s="84"/>
@@ -3871,7 +3868,7 @@
       <c r="C85" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D85" s="30">
         <v>199.8787</v>
       </c>
       <c r="E85" s="84">
@@ -3893,7 +3890,7 @@
       <c r="C86" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="20">
         <v>12666.2</v>
       </c>
       <c r="E86" s="84">
@@ -3913,7 +3910,7 @@
       <c r="C87" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="20">
         <v>31295.02</v>
       </c>
       <c r="E87" s="84">
@@ -3935,7 +3932,7 @@
       <c r="C88" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="20">
         <v>69.2</v>
       </c>
       <c r="E88" s="84"/>
@@ -3975,7 +3972,7 @@
     <row r="101" s="91" customFormat="1"/>
     <row r="102" s="91" customFormat="1"/>
     <row r="103" s="91" customFormat="1"/>
-    <row r="104" s="91" customFormat="1" ht="13" spans="3:8">
+    <row r="104" s="91" customFormat="1" spans="3:8">
       <c r="C104" s="77"/>
       <c r="D104" s="78"/>
       <c r="E104" s="88"/>
@@ -3984,22 +3981,22 @@
       <c r="H104" s="88"/>
     </row>
     <row r="105" s="91" customFormat="1" spans="3:8">
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
     </row>
     <row r="106" s="91" customFormat="1" spans="3:8">
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-    </row>
-    <row r="107" s="91" customFormat="1" ht="13" spans="3:8">
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+    </row>
+    <row r="107" s="91" customFormat="1" spans="3:8">
       <c r="C107" s="75"/>
       <c r="D107" s="79"/>
       <c r="E107" s="89"/>
@@ -4059,19 +4056,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="5.12727272727273" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="21.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="21.2583333333333" customWidth="1"/>
     <col min="4" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="9.37272727272727"/>
+    <col min="9" max="9" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
@@ -4157,16 +4154,16 @@
       <c r="D5" s="12">
         <v>34739.56</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="38">
         <v>7.06791911008659</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <v>22.5243831378053</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>139.629960120425</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>1.28195851617305</v>
       </c>
     </row>
@@ -4179,16 +4176,16 @@
       <c r="D6" s="12">
         <v>187.8</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="38">
         <v>0.09797657082002</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <v>60.3967678662801</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>140.734265734266</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>0.4583830803343</v>
       </c>
     </row>
@@ -4199,10 +4196,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A8" s="13"/>
@@ -4210,19 +4207,19 @@
       <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>125.66</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="38">
         <v>25.8713990132102</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <v>64.5260332796565</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>581.29898013956</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>0.128824476650564</v>
       </c>
     </row>
@@ -4232,11 +4229,11 @@
       <c r="C9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A10" s="13"/>
@@ -4247,1098 +4244,1099 @@
       <c r="D10" s="15">
         <v>20.16</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38">
         <v>99.02</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A11" s="13"/>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>706.79</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>9.85</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="38">
         <v>24.8</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>39.88</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>0.32</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A12" s="13"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>415.8</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40">
+      <c r="E12" s="38"/>
+      <c r="F12" s="39">
         <v>73.99</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="39">
         <v>264.9</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="39">
         <v>5.32</v>
       </c>
-      <c r="I12" s="45"/>
+      <c r="I12" s="44"/>
     </row>
     <row r="13" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A13" s="13"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>209</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40">
+      <c r="E13" s="38"/>
+      <c r="F13" s="39">
         <v>1.89</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>6.1</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="39">
         <v>0.05</v>
       </c>
-      <c r="I13" s="45"/>
+      <c r="I13" s="44"/>
     </row>
     <row r="14" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A14" s="13"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>148.32</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40">
+      <c r="E14" s="38"/>
+      <c r="F14" s="39">
         <v>1.89</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>6.1</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="39">
         <v>0.05</v>
       </c>
-      <c r="I14" s="45"/>
+      <c r="I14" s="44"/>
     </row>
     <row r="15" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A15" s="13"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>33.3</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40">
+      <c r="E15" s="38"/>
+      <c r="F15" s="39">
         <v>11.5</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="39">
         <v>118.6</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="39">
         <v>0.67</v>
       </c>
-      <c r="I15" s="45"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A16" s="13"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>537.95</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40">
+      <c r="E16" s="38"/>
+      <c r="F16" s="39">
         <v>98.95</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <v>420.4</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="39">
         <v>9.12</v>
       </c>
-      <c r="I16" s="45"/>
+      <c r="I16" s="44"/>
     </row>
     <row r="17" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A17" s="13"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>136.06</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40">
+      <c r="E17" s="38"/>
+      <c r="F17" s="39">
         <v>32.79</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <v>16.7</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="39">
         <v>0.05</v>
       </c>
-      <c r="I17" s="45"/>
+      <c r="I17" s="44"/>
     </row>
     <row r="18" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A18" s="13"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <v>53.6</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40">
+      <c r="E18" s="38"/>
+      <c r="F18" s="39">
         <v>32.79</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="39">
         <v>16.7</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="39">
         <v>0.05</v>
       </c>
-      <c r="I18" s="45"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A19" s="13"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>11.7</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40">
+      <c r="E19" s="38"/>
+      <c r="F19" s="39">
         <v>11.5</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <v>118.6</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="39">
         <v>0.67</v>
       </c>
-      <c r="I19" s="45"/>
+      <c r="I19" s="44"/>
     </row>
     <row r="20" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A20" s="13"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>3060.67</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39">
+      <c r="E20" s="38"/>
+      <c r="F20" s="38">
         <v>6.60652732898352</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <v>77.3118304162161</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="38">
         <v>0.493356029888881</v>
       </c>
-      <c r="I20" s="45"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A21" s="13"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="23" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <v>890</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41">
+      <c r="E21" s="40"/>
+      <c r="F21" s="40">
         <v>99.51</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <v>367.65</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="40">
         <v>6.65</v>
       </c>
-      <c r="I21" s="45"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A22" s="13"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="17"/>
+      <c r="C22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <v>822.8</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39">
+      <c r="E22" s="38"/>
+      <c r="F22" s="38">
         <v>99.51</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="38">
         <v>367.65</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="38">
         <v>6.65</v>
       </c>
-      <c r="I22" s="45"/>
+      <c r="I22" s="44"/>
     </row>
     <row r="23" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A23" s="13"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <v>17.96</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39">
+      <c r="E23" s="38"/>
+      <c r="F23" s="38">
         <v>99.51</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <v>367.65</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="38">
         <v>6.65</v>
       </c>
-      <c r="I23" s="45"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A24" s="13"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>25.2</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39">
+      <c r="E24" s="38"/>
+      <c r="F24" s="38">
         <v>99.51</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <v>367.65</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="38">
         <v>6.65</v>
       </c>
-      <c r="I24" s="45"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A25" s="13"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <v>315</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39">
+      <c r="E25" s="38"/>
+      <c r="F25" s="38">
         <v>44.8352380952381</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <v>95.9555555555556</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="38">
         <v>1.81904761904762</v>
       </c>
-      <c r="I25" s="45"/>
+      <c r="I25" s="44"/>
     </row>
     <row r="26" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A26" s="13"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <v>0</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="45"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A27" s="13"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="17"/>
+      <c r="C27" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <v>0</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="45"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A28" s="13"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>34.147</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38">
         <v>99.51</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="38">
         <v>367.65</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="38">
         <v>6.65</v>
       </c>
-      <c r="I28" s="45"/>
+      <c r="I28" s="44"/>
     </row>
     <row r="29" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A29" s="13"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>8.5</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38">
         <v>100</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="45"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A30" s="13"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="23" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>2.28</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38">
         <v>99.93</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="38">
         <v>2.47</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="45"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="25"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="20" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <v>111.18</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="38">
         <v>18.3783054506206</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <v>4.8133822605706</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="39">
         <v>304.483894784401</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="39">
         <v>1.39949530012011</v>
       </c>
-      <c r="I31" s="45"/>
+      <c r="I31" s="44"/>
     </row>
     <row r="32" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A32" s="25"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>0</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="45"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A33" s="25"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>4103</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="38">
         <v>65.6468681452596</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="39">
         <v>1.92506752351351</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="39">
         <v>5.04927602448796</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="39">
         <v>0.254698622002414</v>
       </c>
-      <c r="I33" s="45"/>
+      <c r="I33" s="44"/>
     </row>
     <row r="34" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A34" s="25"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="20" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>2676.23</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="38">
         <v>52.1500766377146</v>
       </c>
-      <c r="F34" s="40">
+      <c r="F34" s="39">
         <v>0.0847237310009935</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="45"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A35" s="25"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="20" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>352.54</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="38">
         <v>62.9477506098599</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>0.133206761391475</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="39">
         <v>1.09474522292994</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="39">
         <v>0.130144536991671</v>
       </c>
-      <c r="I35" s="45"/>
+      <c r="I35" s="44"/>
     </row>
     <row r="36" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="45"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="44"/>
     </row>
     <row r="37" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A37" s="13"/>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="30">
         <v>29.0146</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39">
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38">
         <v>999900</v>
       </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="46"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="45"/>
     </row>
     <row r="38" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A38" s="13"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="18">
         <v>10</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39">
+      <c r="E38" s="38"/>
+      <c r="F38" s="38">
         <v>99.8</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="46"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="45"/>
     </row>
     <row r="39" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D39" s="20">
         <v>21</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="38">
         <v>0</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="39">
         <v>25</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A40" s="13"/>
       <c r="B40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="20">
         <v>5234.38</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="40">
+      <c r="E40" s="38"/>
+      <c r="F40" s="39">
         <v>99.51</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="39">
         <v>311.65</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="39">
         <v>6.65</v>
       </c>
-      <c r="I40" s="45"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="32">
         <v>4998.63</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43">
+      <c r="E41" s="41"/>
+      <c r="F41" s="42">
         <v>99.51</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="42">
         <v>311.65</v>
       </c>
-      <c r="H41" s="43">
+      <c r="H41" s="42">
         <v>6.65</v>
       </c>
-      <c r="I41" s="45"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="31">
         <v>224</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43">
+      <c r="E42" s="41"/>
+      <c r="F42" s="42">
         <v>99.51</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="42">
         <v>311.65</v>
       </c>
-      <c r="H42" s="43">
+      <c r="H42" s="42">
         <v>6.65</v>
       </c>
-      <c r="I42" s="45"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>3.47</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="40">
+      <c r="E43" s="38"/>
+      <c r="F43" s="39">
         <v>99.51</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="39">
         <v>311.65</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="39">
         <v>6.65</v>
       </c>
     </row>
     <row r="44" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="18">
         <v>26.7798072774342</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="38">
         <v>30.47</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="39">
         <v>17.65</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="39">
         <v>31930</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="39">
         <v>1598</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="18">
         <v>28.2904252241828</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="38">
         <v>30.86</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="39">
         <v>18.18</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="39">
         <v>35150</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="39">
         <v>2028</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <v>3624.49</v>
       </c>
-      <c r="E46" s="39"/>
-      <c r="F46" s="40">
+      <c r="E46" s="38"/>
+      <c r="F46" s="39">
         <v>100</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="39">
         <v>5.7</v>
       </c>
-      <c r="H46" s="40"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="20">
         <v>256.54</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="38">
         <v>31.7092851017385</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="42">
         <v>17.9619048706284</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="42">
         <v>66603.3403161085</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="39">
         <v>2060.20217702762</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="33">
         <v>7348</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="44">
+      <c r="E48" s="40"/>
+      <c r="F48" s="43">
         <v>49.5402259118127</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-    </row>
-    <row r="49" customFormat="1" ht="19" customHeight="1" spans="1:8">
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+    </row>
+    <row r="49" customFormat="1" ht="19" customHeight="1" spans="1:16">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="33">
         <v>0</v>
       </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="P49" s="46"/>
     </row>
     <row r="50" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A50" s="13"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="34" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="23">
         <v>0.88</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="40">
+      <c r="E50" s="40"/>
+      <c r="F50" s="39">
         <v>100</v>
       </c>
-      <c r="G50" s="40">
+      <c r="G50" s="39">
         <v>5.7</v>
       </c>
-      <c r="H50" s="44"/>
+      <c r="H50" s="43"/>
     </row>
     <row r="51" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A51" s="13"/>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="35">
         <v>965.3187</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="44">
+      <c r="E51" s="40"/>
+      <c r="F51" s="43">
         <v>99.9981353308498</v>
       </c>
-      <c r="G51" s="44">
+      <c r="G51" s="43">
         <v>7.14271877256703</v>
       </c>
-      <c r="H51" s="44"/>
+      <c r="H51" s="43"/>
     </row>
     <row r="52" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A52" s="13"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="36"/>
+      <c r="C52" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="35">
         <v>4.7978</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="44">
+      <c r="E52" s="40"/>
+      <c r="F52" s="43">
         <v>99.9937471341031</v>
       </c>
-      <c r="G52" s="44">
+      <c r="G52" s="43">
         <v>2.91800408520572</v>
       </c>
-      <c r="H52" s="44"/>
+      <c r="H52" s="43"/>
     </row>
     <row r="53" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A53" s="13"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <v>20.1182</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="44">
+      <c r="E53" s="40"/>
+      <c r="F53" s="43">
         <v>99.9900587527711</v>
       </c>
-      <c r="G53" s="44">
+      <c r="G53" s="43">
         <v>0</v>
       </c>
-      <c r="H53" s="44"/>
+      <c r="H53" s="43"/>
     </row>
     <row r="54" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" customFormat="1" ht="19" customHeight="1" spans="1:8">
       <c r="A55" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="18">
         <v>49450</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40">
+      <c r="E55" s="38"/>
+      <c r="F55" s="39">
         <v>1.89</v>
       </c>
-      <c r="G55" s="40">
+      <c r="G55" s="39">
         <v>5</v>
       </c>
-      <c r="H55" s="40">
+      <c r="H55" s="39">
         <v>0.05</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A56" s="13"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="18">
         <v>380</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="38">
         <v>10.15</v>
       </c>
-      <c r="F56" s="40">
+      <c r="F56" s="39">
         <v>28.46</v>
       </c>
-      <c r="G56" s="40">
+      <c r="G56" s="39">
         <v>39.88</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="39">
         <v>0.32</v>
       </c>
-      <c r="I56" s="45"/>
+      <c r="I56" s="44"/>
     </row>
     <row r="57" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A57" s="13"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="17"/>
+      <c r="C57" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D57" s="20">
         <v>765.14</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="40">
+      <c r="E57" s="38"/>
+      <c r="F57" s="39">
         <v>23.2899861463262</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="39">
         <v>31.86</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H57" s="39">
         <v>0.2</v>
       </c>
-      <c r="I57" s="45"/>
+      <c r="I57" s="44"/>
     </row>
     <row r="58" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A58" s="13"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="20">
         <v>765.14</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="40">
+      <c r="E58" s="38"/>
+      <c r="F58" s="39">
         <v>0.310008625872389</v>
       </c>
-      <c r="G58" s="40">
+      <c r="G58" s="39">
         <v>0.8</v>
       </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="45"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="44"/>
     </row>
     <row r="59" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A59" s="13"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="20">
         <v>765.14</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40">
+      <c r="E59" s="38"/>
+      <c r="F59" s="39">
         <v>0.270015944794417</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="39">
         <v>1.3</v>
       </c>
-      <c r="H59" s="40"/>
-      <c r="I59" s="45"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="44"/>
     </row>
     <row r="60" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A60" s="13"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="17"/>
+      <c r="C60" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="20">
         <v>220.23</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="40">
+      <c r="E60" s="38"/>
+      <c r="F60" s="39">
         <v>1.89</v>
       </c>
-      <c r="G60" s="40">
+      <c r="G60" s="39">
         <v>5</v>
       </c>
-      <c r="H60" s="40">
+      <c r="H60" s="39">
         <v>0.05</v>
       </c>
-      <c r="I60" s="45"/>
+      <c r="I60" s="44"/>
     </row>
     <row r="61" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A61" s="13"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="17"/>
+      <c r="C61" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D61" s="20">
         <v>117.819</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="40">
+      <c r="E61" s="38"/>
+      <c r="F61" s="39">
         <v>1.89</v>
       </c>
-      <c r="G61" s="40">
+      <c r="G61" s="39">
         <v>5</v>
       </c>
-      <c r="H61" s="40">
+      <c r="H61" s="39">
         <v>0.05</v>
       </c>
-      <c r="I61" s="45"/>
+      <c r="I61" s="44"/>
     </row>
     <row r="62" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A62" s="13"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="17"/>
+      <c r="C62" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="18">
         <v>900.34</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="38">
         <v>52.1500766377146</v>
       </c>
-      <c r="F62" s="40">
+      <c r="F62" s="39">
         <v>0.0847237310009935</v>
       </c>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="45"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="44"/>
     </row>
     <row r="63" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A63" s="13"/>
       <c r="B63" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="18">
         <v>4771</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="38">
         <v>6.2</v>
       </c>
-      <c r="F63" s="40">
+      <c r="F63" s="39">
         <v>0.41</v>
       </c>
-      <c r="G63" s="40">
+      <c r="G63" s="39">
         <v>2.1</v>
       </c>
-      <c r="H63" s="40"/>
-      <c r="I63" s="45"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="44"/>
     </row>
     <row r="64" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A64" s="13"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="18">
         <v>6744</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="38">
         <v>8.26</v>
       </c>
-      <c r="F64" s="40">
+      <c r="F64" s="39">
         <v>0.22</v>
       </c>
-      <c r="G64" s="40">
+      <c r="G64" s="39">
         <v>1.9</v>
       </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="45"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="44"/>
     </row>
     <row r="65" customFormat="1" ht="19" customHeight="1" spans="1:9">
-      <c r="A65" s="25"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="47" t="s">
         <v>50</v>
       </c>
       <c r="C65" s="48"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="45"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="44"/>
     </row>
     <row r="66" customFormat="1" ht="19" customHeight="1" spans="1:9">
       <c r="A66" s="49" t="s">
@@ -5351,7 +5349,7 @@
       <c r="F66" s="81"/>
       <c r="G66" s="82"/>
       <c r="H66" s="82"/>
-      <c r="I66" s="45"/>
+      <c r="I66" s="44"/>
     </row>
     <row r="67" customFormat="1" ht="13.5" spans="1:8">
       <c r="A67" s="1" t="s">
@@ -5579,7 +5577,7 @@
       <c r="C79" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="31">
+      <c r="D79" s="30">
         <v>351.4071</v>
       </c>
       <c r="E79" s="84"/>
@@ -5597,7 +5595,7 @@
       <c r="C80" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="20">
         <v>11871.18</v>
       </c>
       <c r="E80" s="84">
@@ -5617,7 +5615,7 @@
       <c r="C81" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="20">
         <v>32166.46</v>
       </c>
       <c r="E81" s="84">
@@ -5639,7 +5637,7 @@
       <c r="C82" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="20">
         <v>25.84</v>
       </c>
       <c r="E82" s="84"/>
@@ -5665,7 +5663,7 @@
       <c r="G83" s="85"/>
       <c r="H83" s="85"/>
     </row>
-    <row r="84" customFormat="1" ht="13" spans="1:8">
+    <row r="84" customFormat="1" spans="1:8">
       <c r="A84" s="75"/>
       <c r="B84" s="76"/>
       <c r="C84" s="76"/>
@@ -5679,7 +5677,7 @@
     <row r="86" customFormat="1"/>
     <row r="87" customFormat="1"/>
     <row r="88" customFormat="1"/>
-    <row r="89" customFormat="1" ht="13" spans="3:8">
+    <row r="89" customFormat="1" spans="3:8">
       <c r="C89" s="77"/>
       <c r="D89" s="78"/>
       <c r="E89" s="88"/>
@@ -5688,22 +5686,22 @@
       <c r="H89" s="88"/>
     </row>
     <row r="90" customFormat="1" spans="3:8">
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
     </row>
     <row r="91" customFormat="1" spans="3:8">
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-    </row>
-    <row r="92" customFormat="1" ht="13" spans="3:8">
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+    </row>
+    <row r="92" customFormat="1" spans="3:8">
       <c r="C92" s="75"/>
       <c r="D92" s="79"/>
       <c r="E92" s="89"/>
